--- a/Scraping/Nipro/Nipro.xlsx
+++ b/Scraping/Nipro/Nipro.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,35 +448,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>カテゴリコード</t>
+          <t>カテゴリコード１</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>カテゴリコード２</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>カテゴリコード３</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>メーカーコード</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>メーカー名称</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>新着記事カテゴリ</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>新着記事タイトル</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>新着記事URL</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>新製品記事</t>
         </is>
@@ -485,25 +495,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>202085</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>血液浄化</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>医療機器管理</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ニプロ</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ニプロエクステンションチューブ(分注用コネクタ)　新発売のご案内</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>http://med.nipro.co.jp/servlet/servlet.FileDownload?file=00P2x000004krN1EAI</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020812</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>血液浄化</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>医療機器管理</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ニプロ</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ニプロエクステンションチューブ(分注用コネクタ)　新発売のご案内</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>http://med.nipro.co.jp/servlet/servlet.FileDownload?file=00P2x000004krN1EAI</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020812</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>血液浄化</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>医療機器管理</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ニプロ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PTAガイドワイヤ｢ABYSS18 KP3.0｣　販売終了のご案内</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>http://med.nipro.co.jp/servlet/servlet.FileDownload?file=00P2x000002rFH7EAM</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020818</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>血液浄化</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>医療機器管理</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ニプロ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ニプロエクステンションチューブ(分注用コネクタ)　新発売のご案内</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>http://med.nipro.co.jp/servlet/servlet.FileDownload?file=00P2x000004krN1EAI</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2020819</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>血液浄化</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>医療機器管理</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>ニプロ</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>ニプロエクステンションチューブ(分注用コネクタ)　新発売のご案内</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>http://med.nipro.co.jp/servlet/servlet.FileDownload?file=00P2x000004krN1EAI</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Scraping/Nipro/Nipro.xlsx
+++ b/Scraping/Nipro/Nipro.xlsx
@@ -495,7 +495,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>202085</t>
+          <t>20200805</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -511,6 +511,11 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>ニプロ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>規格・仕様変更</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -530,7 +535,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020812</t>
+          <t>20200812</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -546,6 +551,11 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>ニプロ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>その他</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,7 +575,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020812</t>
+          <t>20200812</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -581,6 +591,11 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>ニプロ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>規格・仕様変更</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -600,7 +615,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020818</t>
+          <t>20200818</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -616,6 +631,11 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>ニプロ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>新発売・販売中止</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -635,7 +655,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020819</t>
+          <t>20200819</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>ニプロ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>新発売・販売中止</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
